--- a/Questions/koreanAnimation.xlsx
+++ b/Questions/koreanAnimation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB725FA9-7C2B-674D-943D-F124918DB99B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051D0FE8-318A-744A-8876-A3291C709708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,10 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>선가드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로봇수사대케이캅스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -358,10 +354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>junvn7qKikc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Iz_lJA2iH7s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -462,10 +454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xyeWOA6kXPs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MJaWB8xQDkE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -486,10 +474,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xvxYEthSt2U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TUPHbkyn1fM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -523,6 +507,30 @@
   </si>
   <si>
     <t>hfkt6oaBZmM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bve8j756ciA</t>
+  </si>
+  <si>
+    <t>xe6M7FxTenY</t>
+  </si>
+  <si>
+    <t>QbI_N4M5GFc</t>
+  </si>
+  <si>
+    <t>A3wbRucy9F4</t>
+  </si>
+  <si>
+    <t>동글동글문어빵맨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문어빵맨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선가드 썬가드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +539,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -589,7 +597,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -930,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -966,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -983,7 +991,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1000,7 +1008,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1017,7 +1025,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1034,7 +1042,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -1051,7 +1059,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1066,7 +1074,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -1081,10 +1089,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="C9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>17</v>
@@ -1096,7 +1104,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -1113,7 +1121,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -1128,7 +1136,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12" s="1">
         <v>30</v>
@@ -1143,7 +1151,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -1158,7 +1166,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1175,7 +1183,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1">
         <v>15</v>
@@ -1192,7 +1200,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -1207,7 +1215,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1222,7 +1230,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -1237,7 +1245,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C19" s="1">
         <v>5</v>
@@ -1254,7 +1262,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C20" s="1">
         <v>6</v>
@@ -1269,7 +1277,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -1286,7 +1294,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -1301,7 +1309,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C23" s="1">
         <v>35</v>
@@ -1318,7 +1326,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -1335,7 +1343,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
@@ -1350,7 +1358,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -1365,7 +1373,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -1382,7 +1390,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -1397,7 +1405,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -1414,7 +1422,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
@@ -1429,7 +1437,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -1446,7 +1454,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C32" s="1">
         <v>20</v>
@@ -1463,7 +1471,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C33" s="1">
         <v>14</v>
@@ -1477,7 +1485,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1491,10 +1499,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C35" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>54</v>
@@ -1505,7 +1513,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -1519,7 +1527,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C37" s="1">
         <v>5</v>
@@ -1528,7 +1536,7 @@
         <v>56</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1536,16 +1544,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1553,16 +1561,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C39" s="1">
         <v>9</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1570,13 +1578,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C40" s="3">
         <v>100</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E40" s="1"/>
     </row>
@@ -1585,13 +1593,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E41" s="1"/>
     </row>
@@ -1600,13 +1608,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E42" s="1"/>
     </row>
@@ -1615,13 +1623,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E43" s="1"/>
     </row>
@@ -1630,13 +1638,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C44" s="1">
         <v>12</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E44" s="1"/>
     </row>
@@ -1645,16 +1653,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1662,13 +1670,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E46" s="1"/>
     </row>
@@ -1677,16 +1685,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" t="s">
         <v>70</v>
-      </c>
-      <c r="E47" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1694,16 +1702,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" t="s">
         <v>72</v>
-      </c>
-      <c r="E48" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1711,16 +1719,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1728,13 +1736,30 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="1">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>76</v>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/koreanAnimation.xlsx
+++ b/Questions/koreanAnimation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051D0FE8-318A-744A-8876-A3291C709708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F8E264-212F-9642-B707-C555D47B61F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,10 +490,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ybpV8h-Rpyk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6WKm1Tscpz4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -513,9 +509,6 @@
     <t>bve8j756ciA</t>
   </si>
   <si>
-    <t>xe6M7FxTenY</t>
-  </si>
-  <si>
     <t>QbI_N4M5GFc</t>
   </si>
   <si>
@@ -532,6 +525,12 @@
   <si>
     <t>선가드 썬가드</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y2W8aUPYzFQ</t>
+  </si>
+  <si>
+    <t>zIjYxHIIzvQ</t>
   </si>
 </sst>
 </file>
@@ -940,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1089,7 +1088,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -1499,7 +1498,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
@@ -1536,7 +1535,7 @@
         <v>56</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1593,7 +1592,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -1670,7 +1669,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -1685,7 +1684,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
@@ -1702,7 +1701,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
@@ -1719,7 +1718,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
@@ -1736,7 +1735,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C50" s="1">
         <v>0</v>
@@ -1750,16 +1749,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>124</v>
+      </c>
+      <c r="E51" t="s">
         <v>125</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0</v>
-      </c>
-      <c r="D51" t="s">
-        <v>126</v>
-      </c>
-      <c r="E51" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/koreanAnimation.xlsx
+++ b/Questions/koreanAnimation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F8E264-212F-9642-B707-C555D47B61F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890BBF0A-EE12-E548-86D7-D74F6FF2F8C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>카드캡터사쿠라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>디지몬어드벤처</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,10 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>너에게닿기를</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>탑블레이드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -527,10 +519,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>y2W8aUPYzFQ</t>
-  </si>
-  <si>
     <t>zIjYxHIIzvQ</t>
+  </si>
+  <si>
+    <t>카드캡터사쿠라 체리 사쿠라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kedB4EaH4bs</t>
+  </si>
+  <si>
+    <t>채운국이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채운국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -939,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -973,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -990,7 +994,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -999,7 +1003,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1007,16 +1011,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1024,16 +1028,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1041,13 +1045,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
@@ -1058,13 +1062,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1073,13 +1077,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1088,13 +1092,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1103,16 +1107,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1120,13 +1124,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -1135,13 +1139,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1">
         <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -1150,13 +1154,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1165,16 +1169,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1182,16 +1186,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C15" s="1">
         <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1199,13 +1203,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -1214,13 +1218,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -1229,13 +1233,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -1244,16 +1248,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C19" s="1">
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1261,13 +1265,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C20" s="1">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -1276,16 +1280,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1293,13 +1297,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -1308,16 +1312,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C23" s="1">
         <v>35</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1325,16 +1329,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1342,13 +1346,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -1357,13 +1361,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -1372,16 +1376,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1389,13 +1393,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -1404,16 +1408,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1421,13 +1425,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -1436,16 +1440,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1453,16 +1457,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C32" s="1">
         <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1470,13 +1474,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C33" s="1">
         <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1484,13 +1488,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1498,13 +1502,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1512,13 +1516,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1526,16 +1530,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C37" s="1">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1543,16 +1547,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1560,16 +1564,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C39" s="1">
         <v>9</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1577,13 +1581,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C40" s="3">
         <v>100</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E40" s="1"/>
     </row>
@@ -1595,25 +1599,27 @@
         <v>127</v>
       </c>
       <c r="C41" s="1">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E42" s="1"/>
     </row>
@@ -1622,13 +1628,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E43" s="1"/>
     </row>
@@ -1637,13 +1643,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C44" s="1">
         <v>12</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E44" s="1"/>
     </row>
@@ -1652,16 +1658,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1669,13 +1675,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E46" s="1"/>
     </row>
@@ -1684,16 +1690,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1701,16 +1707,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1718,16 +1724,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1735,13 +1741,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C50" s="1">
         <v>0</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1749,16 +1755,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" t="s">
         <v>123</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0</v>
-      </c>
-      <c r="D51" t="s">
-        <v>124</v>
-      </c>
-      <c r="E51" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
